--- a/data/T29R11_data.xlsx
+++ b/data/T29R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6CC4910-8377-4871-B298-8FCA75E3BA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F509F-29A3-489F-8806-DA2CDD245CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/T29R11_data.xlsx
+++ b/data/T29R11_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F509F-29A3-489F-8806-DA2CDD245CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B207D99-25B2-4F82-A5B9-9F5450164C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey data" sheetId="1" r:id="rId1"/>
@@ -2027,7 +2027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2076,6 +2076,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2310,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B404"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -8640,7 +8646,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15.6">
+    <row r="219" spans="1:15" ht="16.2" customHeight="1">
       <c r="A219" s="9" t="s">
         <v>41</v>
       </c>
@@ -8668,261 +8674,261 @@
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
     </row>
-    <row r="220" spans="1:15" ht="15.6">
-      <c r="A220" s="9" t="s">
+    <row r="220" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A220" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B220" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C220" s="9" t="s">
+      <c r="B220" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C220" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D220" s="12">
+      <c r="D220" s="30">
         <v>0</v>
       </c>
-      <c r="E220" s="9" t="s">
+      <c r="E220" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G220" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I220" s="9" t="s">
+      <c r="G220" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="N220" s="10"/>
-      <c r="O220" s="10"/>
-    </row>
-    <row r="221" spans="1:15" ht="15.6">
-      <c r="A221" s="9" t="s">
+      <c r="N220" s="32"/>
+      <c r="O220" s="32"/>
+    </row>
+    <row r="221" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A221" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B221" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C221" s="9" t="s">
+      <c r="B221" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C221" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D221" s="12">
+      <c r="D221" s="30">
         <v>40.36</v>
       </c>
-      <c r="E221" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G221" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I221" s="9" t="s">
+      <c r="E221" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N221" s="10"/>
-      <c r="O221" s="10"/>
-    </row>
-    <row r="222" spans="1:15" ht="15.6">
-      <c r="A222" s="9" t="s">
+      <c r="N221" s="32"/>
+      <c r="O221" s="32"/>
+    </row>
+    <row r="222" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A222" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B222" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C222" s="9" t="s">
+      <c r="B222" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C222" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D222" s="12">
+      <c r="D222" s="30">
         <v>75</v>
       </c>
-      <c r="E222" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I222" s="9" t="s">
+      <c r="E222" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G222" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N222" s="10"/>
-      <c r="O222" s="10"/>
-    </row>
-    <row r="223" spans="1:15" ht="15.6">
-      <c r="A223" s="9" t="s">
+      <c r="N222" s="32"/>
+      <c r="O222" s="32"/>
+    </row>
+    <row r="223" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A223" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B223" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C223" s="9" t="s">
+      <c r="B223" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C223" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D223" s="12">
+      <c r="D223" s="30">
         <v>80.72</v>
       </c>
-      <c r="E223" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I223" s="9" t="s">
+      <c r="E223" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N223" s="10"/>
-      <c r="O223" s="10"/>
-    </row>
-    <row r="224" spans="1:15" ht="15.6">
-      <c r="A224" s="9" t="s">
+      <c r="N223" s="32"/>
+      <c r="O223" s="32"/>
+    </row>
+    <row r="224" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A224" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B224" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C224" s="9" t="s">
+      <c r="B224" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C224" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="D224" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E224" s="9" t="s">
+      <c r="E224" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G224" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H224" s="9" t="s">
+      <c r="G224" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H224" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I224" s="9" t="s">
+      <c r="I224" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="N224" s="10"/>
-      <c r="O224" s="10"/>
-    </row>
-    <row r="225" spans="1:16" ht="15.6">
-      <c r="A225" s="9" t="s">
+      <c r="N224" s="32"/>
+      <c r="O224" s="32"/>
+    </row>
+    <row r="225" spans="1:16" s="31" customFormat="1" ht="15.6">
+      <c r="A225" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B225" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D225" s="12">
+      <c r="B225" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D225" s="30">
         <v>0</v>
       </c>
-      <c r="E225" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I225" s="9" t="s">
+      <c r="E225" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G225" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N225" s="10"/>
-      <c r="O225" s="10"/>
-    </row>
-    <row r="226" spans="1:16" ht="15.6">
-      <c r="A226" s="9" t="s">
+      <c r="N225" s="32"/>
+      <c r="O225" s="32"/>
+    </row>
+    <row r="226" spans="1:16" s="31" customFormat="1" ht="15.6">
+      <c r="A226" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B226" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D226" s="12">
+      <c r="B226" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D226" s="30">
         <v>3</v>
       </c>
-      <c r="E226" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I226" s="9" t="s">
+      <c r="E226" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G226" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I226" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N226" s="10"/>
-      <c r="O226" s="10"/>
-    </row>
-    <row r="227" spans="1:16" ht="15.6">
-      <c r="A227" s="9" t="s">
+      <c r="N226" s="32"/>
+      <c r="O226" s="32"/>
+    </row>
+    <row r="227" spans="1:16" s="31" customFormat="1" ht="15.6">
+      <c r="A227" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B227" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D227" s="12">
+      <c r="B227" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D227" s="30">
         <v>40.98</v>
       </c>
-      <c r="E227" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G227" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I227" s="9" t="s">
+      <c r="E227" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G227" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I227" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N227" s="10"/>
-      <c r="O227" s="10"/>
-    </row>
-    <row r="228" spans="1:16" ht="15.6">
-      <c r="A228" s="9" t="s">
+      <c r="N227" s="32"/>
+      <c r="O227" s="32"/>
+    </row>
+    <row r="228" spans="1:16" s="31" customFormat="1" ht="15.6">
+      <c r="A228" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B228" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D228" s="12">
+      <c r="B228" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C228" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D228" s="30">
         <v>82.08</v>
       </c>
-      <c r="E228" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I228" s="9" t="s">
+      <c r="E228" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N228" s="10"/>
-      <c r="O228" s="10"/>
-    </row>
-    <row r="229" spans="1:16" ht="15.6">
-      <c r="A229" s="9" t="s">
+      <c r="N228" s="32"/>
+      <c r="O228" s="32"/>
+    </row>
+    <row r="229" spans="1:16" s="31" customFormat="1" ht="15.6">
+      <c r="A229" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B229" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="D229" s="12" t="s">
+      <c r="B229" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D229" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E229" s="9" t="s">
+      <c r="E229" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G229" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H229" s="9" t="s">
+      <c r="G229" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H229" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I229" s="9" t="s">
+      <c r="I229" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="N229" s="10"/>
-      <c r="O229" s="10"/>
+      <c r="N229" s="32"/>
+      <c r="O229" s="32"/>
     </row>
     <row r="230" spans="1:16" ht="15.6">
       <c r="A230" s="9" t="s">
@@ -13199,153 +13205,153 @@
       <c r="N384" s="10"/>
       <c r="O384" s="10"/>
     </row>
-    <row r="385" spans="1:15" ht="15.6">
-      <c r="A385" s="9" t="s">
+    <row r="385" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A385" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B385" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C385" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D385" s="12">
+      <c r="B385" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C385" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D385" s="30">
         <v>0</v>
       </c>
-      <c r="E385" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G385" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I385" s="9" t="s">
+      <c r="E385" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G385" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I385" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="N385" s="10"/>
-      <c r="O385" s="10"/>
-    </row>
-    <row r="386" spans="1:15" ht="15.6">
-      <c r="A386" s="9" t="s">
+      <c r="N385" s="32"/>
+      <c r="O385" s="32"/>
+    </row>
+    <row r="386" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A386" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B386" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C386" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D386" s="12">
+      <c r="B386" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C386" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D386" s="30">
         <v>40.1</v>
       </c>
-      <c r="E386" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G386" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H386" s="9" t="s">
+      <c r="E386" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G386" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H386" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="I386" s="9" t="s">
+      <c r="I386" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="M386" s="9" t="s">
+      <c r="M386" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="N386" s="11" t="s">
+      <c r="N386" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="O386" s="11" t="s">
+      <c r="O386" s="33" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="15.6">
-      <c r="A387" s="9" t="s">
+    <row r="387" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A387" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B387" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C387" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D387" s="12">
+      <c r="B387" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C387" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D387" s="30">
         <v>71.099999999999994</v>
       </c>
-      <c r="E387" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G387" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I387" s="9" t="s">
+      <c r="E387" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G387" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I387" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="N387" s="10"/>
-      <c r="O387" s="10"/>
-    </row>
-    <row r="388" spans="1:15" ht="15.6">
-      <c r="A388" s="9" t="s">
+      <c r="N387" s="32"/>
+      <c r="O387" s="32"/>
+    </row>
+    <row r="388" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A388" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B388" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C388" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D388" s="12">
+      <c r="B388" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C388" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D388" s="30">
         <v>80.2</v>
       </c>
-      <c r="E388" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G388" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H388" s="9" t="s">
+      <c r="E388" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G388" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H388" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="I388" s="9" t="s">
+      <c r="I388" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="M388" s="9" t="s">
+      <c r="M388" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="N388" s="11" t="s">
+      <c r="N388" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="O388" s="11" t="s">
+      <c r="O388" s="33" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="15.6">
-      <c r="A389" s="9" t="s">
+    <row r="389" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A389" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B389" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C389" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="D389" s="12" t="s">
+      <c r="B389" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C389" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D389" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E389" s="9" t="s">
+      <c r="E389" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G389" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H389" s="9" t="s">
+      <c r="G389" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H389" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="I389" s="9" t="s">
+      <c r="I389" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="N389" s="10"/>
-      <c r="O389" s="10"/>
+      <c r="N389" s="32"/>
+      <c r="O389" s="32"/>
     </row>
     <row r="390" spans="1:15" ht="15.6">
       <c r="A390" s="9" t="s">
@@ -13475,165 +13481,165 @@
       <c r="N394" s="10"/>
       <c r="O394" s="10"/>
     </row>
-    <row r="395" spans="1:15" ht="15.6">
-      <c r="A395" s="9" t="s">
+    <row r="395" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A395" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B395" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C395" s="9" t="s">
+      <c r="B395" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C395" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D395" s="12">
+      <c r="D395" s="30">
         <v>0</v>
       </c>
-      <c r="E395" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G395" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I395" s="9" t="s">
+      <c r="E395" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G395" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I395" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="N395" s="10"/>
-      <c r="O395" s="10"/>
-    </row>
-    <row r="396" spans="1:15" ht="15.6">
-      <c r="A396" s="9" t="s">
+      <c r="N395" s="32"/>
+      <c r="O395" s="32"/>
+    </row>
+    <row r="396" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A396" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B396" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C396" s="9" t="s">
+      <c r="B396" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C396" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D396" s="12">
+      <c r="D396" s="30">
         <v>7</v>
       </c>
-      <c r="E396" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G396" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I396" s="9" t="s">
+      <c r="E396" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G396" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I396" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="N396" s="10"/>
-      <c r="O396" s="10"/>
-    </row>
-    <row r="397" spans="1:15" ht="15.6">
-      <c r="A397" s="9" t="s">
+      <c r="N396" s="32"/>
+      <c r="O396" s="32"/>
+    </row>
+    <row r="397" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A397" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B397" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C397" s="9" t="s">
+      <c r="B397" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C397" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D397" s="12">
+      <c r="D397" s="30">
         <v>36.1</v>
       </c>
-      <c r="E397" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G397" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I397" s="9" t="s">
+      <c r="E397" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G397" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I397" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N397" s="10"/>
-      <c r="O397" s="10"/>
-    </row>
-    <row r="398" spans="1:15" ht="15.6">
-      <c r="A398" s="9" t="s">
+      <c r="N397" s="32"/>
+      <c r="O397" s="32"/>
+    </row>
+    <row r="398" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A398" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B398" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C398" s="9" t="s">
+      <c r="B398" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C398" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D398" s="12">
+      <c r="D398" s="30">
         <v>40.24</v>
       </c>
-      <c r="E398" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G398" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I398" s="9" t="s">
+      <c r="E398" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G398" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I398" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="M398" s="9" t="s">
+      <c r="M398" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N398" s="11" t="s">
+      <c r="N398" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="O398" s="11" t="s">
+      <c r="O398" s="33" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="15.6">
-      <c r="A399" s="9" t="s">
+    <row r="399" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A399" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B399" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C399" s="9" t="s">
+      <c r="B399" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C399" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D399" s="12">
+      <c r="D399" s="30">
         <v>80.92</v>
       </c>
-      <c r="E399" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G399" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I399" s="9" t="s">
+      <c r="E399" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G399" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I399" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N399" s="10"/>
-      <c r="O399" s="10"/>
-    </row>
-    <row r="400" spans="1:15" ht="15.6">
-      <c r="A400" s="9" t="s">
+      <c r="N399" s="32"/>
+      <c r="O399" s="32"/>
+    </row>
+    <row r="400" spans="1:15" s="31" customFormat="1" ht="15.6">
+      <c r="A400" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B400" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="C400" s="9" t="s">
+      <c r="B400" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C400" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="D400" s="12" t="s">
+      <c r="D400" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E400" s="9" t="s">
+      <c r="E400" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G400" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H400" s="9" t="s">
+      <c r="G400" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H400" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="I400" s="9" t="s">
+      <c r="I400" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="N400" s="10"/>
-      <c r="O400" s="10"/>
+      <c r="N400" s="32"/>
+      <c r="O400" s="32"/>
     </row>
     <row r="401" spans="1:15" ht="15.6">
       <c r="A401" s="9" t="s">

--- a/data/T29R11_data.xlsx
+++ b/data/T29R11_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3954BAE-F5F7-4507-9C48-A7791A629E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D1112D-926E-456C-BD75-852BFFC8DFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="look up" sheetId="3" r:id="rId3"/>
     <sheet name="species codes" sheetId="4" r:id="rId4"/>
     <sheet name="1940Metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="1880Metadata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4796" uniqueCount="581">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1979,6 +1980,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sage brush valleys and flats lie around these mountains. The timber is fir, cedar, pine and pinon on top of the high mountains, becoming all cedar and pinon as the foot is approached. It affords posts and firewood but very little saw timber. The undergrowth in the margins of the timber and outside of it, is sage, which grows very densely and usually from 3-4 ft high. </t>
+  </si>
+  <si>
+    <t>29-11-05-W was not surveyed, and will stay NA.</t>
   </si>
 </sst>
 </file>
@@ -17171,7 +17175,7 @@
   </sheetPr>
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+    <sheetView topLeftCell="A243" workbookViewId="0">
       <selection activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
@@ -26038,4 +26042,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1727F2-C405-48C8-AF30-C566419512BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/T29R11_data.xlsx
+++ b/data/T29R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5A91F6-5DC7-45C5-AB7C-23DFFE34F52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B7753-30F3-4DF7-AE42-1842D0563A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
     <t>June 19-August 2</t>
   </si>
   <si>
-    <t>June 15-June 18</t>
+    <t>June 15-June 1881</t>
   </si>
 </sst>
 </file>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD993"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1"/>

--- a/data/T29R11_data.xlsx
+++ b/data/T29R11_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63C886-46D0-48F7-87D4-44859AD11A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACE283-B7BB-4923-92AC-8CDF07102C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1880Survey" sheetId="2" r:id="rId2"/>
-    <sheet name="2004Survey" sheetId="7" r:id="rId3"/>
+    <sheet name="2019Survey" sheetId="7" r:id="rId3"/>
     <sheet name="look up" sheetId="3" r:id="rId4"/>
     <sheet name="species codes" sheetId="4" r:id="rId5"/>
     <sheet name="1940Metadata" sheetId="5" r:id="rId6"/>
@@ -26447,8 +26447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D11515-F6A4-4E6D-842A-E1A1858A1158}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26510,7 +26510,7 @@
         <v>478</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -26521,7 +26521,7 @@
         <v>480</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -26642,7 +26642,7 @@
         <v>435</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -26697,7 +26697,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -26730,7 +26730,7 @@
         <v>484</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -26741,7 +26741,7 @@
         <v>432</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -26763,7 +26763,7 @@
         <v>428</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -26785,7 +26785,7 @@
         <v>437</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -26862,7 +26862,7 @@
         <v>469</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -26884,7 +26884,7 @@
         <v>425</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -26906,7 +26906,7 @@
         <v>441</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -27225,7 +27225,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:3">

--- a/data/T29R11_data.xlsx
+++ b/data/T29R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACE283-B7BB-4923-92AC-8CDF07102C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DDE85F-B4F0-4404-9517-F68AF4CCE8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26447,8 +26447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D11515-F6A4-4E6D-842A-E1A1858A1158}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26697,7 +26697,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -26719,7 +26719,7 @@
         <v>486</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -26730,7 +26730,7 @@
         <v>484</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -26807,7 +26807,7 @@
         <v>451</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -26862,7 +26862,7 @@
         <v>469</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3">
